--- a/RaxML_analysis/RAxML_run_summary.xlsx
+++ b/RaxML_analysis/RAxML_run_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\seq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\RaxML_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6CC113-6429-4C4C-AC0C-92818FF6E220}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01307FAA-47D2-4555-AFE5-E1CC1F79AB28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
+    <workbookView xWindow="3225" yWindow="1305" windowWidth="21975" windowHeight="11490" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
   <si>
     <t>RunName</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>RaxML_____________21</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>Final LogLikelihood</t>
   </si>
 </sst>
 </file>
@@ -546,23 +555,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F246AD-F8A7-4AB0-8D93-D301BD698F09}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,19 +592,28 @@
       <c r="F1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
-        <v>-13153.313185999999</v>
+        <v>-13017.26355</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -601,19 +621,28 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>27166.084647</v>
+      </c>
+      <c r="H2" s="1">
+        <v>27971.412735999998</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-13397.042324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
-        <v>-13017.26355</v>
+        <v>-13153.313185999999</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -621,19 +650,28 @@
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>27251.656081000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>28056.98417</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-13439.828041000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>-4911.59584</v>
+        <v>-4809.521189</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -641,19 +679,28 @@
       <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>10670.111351</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11531.184984</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-5119.0556759999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
-        <v>-4809.521189</v>
+        <v>-4911.59584</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -661,19 +708,28 @@
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>10861.476567</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11722.5502</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-5214.7382829999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>-5415.7299329999996</v>
+        <v>-5363.3064430000004</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -681,19 +737,28 @@
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>10967.754516000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11191.833748999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-5427.8772580000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>-5363.3064430000004</v>
+        <v>-5415.7299329999996</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -701,8 +766,17 @@
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>11030.858383000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>11254.937615999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-5459.4291910000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -721,8 +795,17 @@
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>59826.810312000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>61123.825406999997</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-29697.405156000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -741,36 +824,54 @@
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="1">
+        <v>59837.818930000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>61134.834024999996</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-29702.909465000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-99416.866563000003</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>209942.24200200001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>211569.32715500001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-104723.12100100001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-99416.866563000003</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -778,8 +879,17 @@
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>210121.32786799999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>211748.41302099999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-104812.663934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -798,19 +908,28 @@
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>190411.97349800001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>191988.930131</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-94967.986749000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
-        <v>-29567.364072</v>
+        <v>-28995.531053999999</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>16</v>
@@ -818,19 +937,28 @@
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>60950.063335999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>62107.433187000002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-30259.031668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>-28995.531053999999</v>
+        <v>-29567.364072</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -838,8 +966,17 @@
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>62088.057613999998</v>
+      </c>
+      <c r="H14" s="1">
+        <v>63245.427464</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-30828.028806999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -859,7 +996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -879,7 +1016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -899,136 +1036,189 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-31479.332747</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>64698.132706999997</v>
+      </c>
+      <c r="H18" s="1">
+        <v>65027.930120999998</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-32291.066353999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="1">
         <v>-31810.059519999999</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-31479.332747</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
+        <v>64928.663383999999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>65258.460797</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-32406.331692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-70926.891969000004</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1">
+        <v>149741.45392999999</v>
+      </c>
+      <c r="H20" s="1">
+        <v>150994.64281700001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-74654.726964999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="1">
         <v>-72124.902675000005</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-70926.891969000004</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1">
+        <v>151631.367341</v>
+      </c>
+      <c r="H21" s="1">
+        <v>152884.55622699999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-75599.683669999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-116832.449767</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1">
+        <v>428254.29828300001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>429832.08793500002</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-213915.14914200001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2">
-        <v>-116832.449767</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1">
+        <v>429043.882293</v>
+      </c>
+      <c r="H23" s="1">
+        <v>430621.67194500001</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-214309.941146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1">
-        <v>-38203.595950000003</v>
+        <v>-37352.607713999998</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>16</v>
@@ -1036,19 +1226,28 @@
       <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>79872.396766999998</v>
+      </c>
+      <c r="H24" s="1">
+        <v>81136.187422999996</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-39720.198383000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1">
-        <v>-37352.607713999998</v>
+        <v>-38203.595950000003</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>16</v>
@@ -1056,19 +1255,28 @@
       <c r="F25" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>81527.181821000006</v>
+      </c>
+      <c r="H25" s="1">
+        <v>82790.972475999995</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-40547.590909999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1">
-        <v>-45328.390428999999</v>
+        <v>-44673.667219000003</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>16</v>
@@ -1076,19 +1284,28 @@
       <c r="F26" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>92140.823103999996</v>
+      </c>
+      <c r="H26" s="1">
+        <v>92465.739902000001</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-46016.411551999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1">
-        <v>-44673.667219000003</v>
+        <v>-45328.390428999999</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>16</v>
@@ -1096,49 +1313,75 @@
       <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>92868.515927999993</v>
+      </c>
+      <c r="H27" s="1">
+        <v>93193.432725999999</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-46380.257963999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1">
+        <v>243770.05381000001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>245221.14382500001</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-121669.02690500001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <v>-118676.162627</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>15</v>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1">
+        <v>246661.68105399999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>248112.77106999999</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-123114.84052699999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I29">
     <sortCondition ref="B2:B29"/>
-    <sortCondition ref="C2:C29"/>
+    <sortCondition ref="G2:G29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RaxML_analysis/RAxML_run_summary.xlsx
+++ b/RaxML_analysis/RAxML_run_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\RaxML_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01307FAA-47D2-4555-AFE5-E1CC1F79AB28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785107AD-F66C-49E5-AC00-670B90C2C360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="1305" windowWidth="21975" windowHeight="11490" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="55">
   <si>
     <t>RunName</t>
   </si>
@@ -162,9 +162,6 @@
     <t>RaxML__________21</t>
   </si>
   <si>
-    <t>RaxML___________22</t>
-  </si>
-  <si>
     <t>RaxML__14</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>RaxML_____________23</t>
   </si>
   <si>
-    <t>RaxML______________23</t>
-  </si>
-  <si>
     <t>RaxML____________20</t>
   </si>
   <si>
@@ -196,6 +190,12 @@
   </si>
   <si>
     <t>Final LogLikelihood</t>
+  </si>
+  <si>
+    <t>RaxML_TOR_LG</t>
+  </si>
+  <si>
+    <t>RaxML_TOR_B62</t>
   </si>
 </sst>
 </file>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F246AD-F8A7-4AB0-8D93-D301BD698F09}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,13 +593,13 @@
         <v>30</v>
       </c>
       <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -776,61 +776,61 @@
         <v>-5459.4291910000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>-29500.945144000001</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
         <v>59826.810312000001</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>61123.825406999997</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>-29697.405156000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
         <v>-29368.363826000001</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
         <v>59837.818930000001</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>61134.834024999996</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>-29702.909465000001</v>
       </c>
     </row>
@@ -865,7 +865,7 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>32</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>32</v>
@@ -1094,67 +1094,67 @@
         <v>-32406.331692</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-70926.891969000004</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2">
+        <v>149741.45392999999</v>
+      </c>
+      <c r="H20" s="2">
+        <v>150994.64281700001</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-74654.726964999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
-        <v>-70926.891969000004</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1">
-        <v>149741.45392999999</v>
-      </c>
-      <c r="H20" s="1">
-        <v>150994.64281700001</v>
-      </c>
-      <c r="I20" s="1">
-        <v>-74654.726964999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>-72124.902675000005</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
         <v>151631.367341</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>152884.55622699999</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>-75599.683669999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>25</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>25</v>
@@ -1323,58 +1323,58 @@
         <v>-46380.257963999997</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2">
         <v>243770.05381000001</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <v>245221.14382500001</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="2">
         <v>-121669.02690500001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>-118676.162627</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2">
         <v>246661.68105399999</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <v>248112.77106999999</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="2">
         <v>-123114.84052699999</v>
       </c>
     </row>

--- a/RaxML_analysis/RAxML_run_summary.xlsx
+++ b/RaxML_analysis/RAxML_run_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\RaxML_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785107AD-F66C-49E5-AC00-670B90C2C360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BABD9F-5D91-4D54-B3A7-9EA17F042207}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
   <si>
     <t>RunName</t>
   </si>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F246AD-F8A7-4AB0-8D93-D301BD698F09}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,62 +776,62 @@
         <v>-5459.4291910000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-29368.363826000001</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>59912.367238999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>61220.954566</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-29738.183618999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="1">
         <v>-29500.945144000001</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2">
-        <v>59826.810312000001</v>
-      </c>
-      <c r="H8" s="2">
-        <v>61123.825406999997</v>
-      </c>
-      <c r="I8" s="2">
-        <v>-29697.405156000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-29368.363826000001</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2">
-        <v>59837.818930000001</v>
-      </c>
-      <c r="H9" s="2">
-        <v>61134.834024999996</v>
-      </c>
-      <c r="I9" s="2">
-        <v>-29702.909465000001</v>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1">
+        <v>59933.435596000003</v>
+      </c>
+      <c r="H9" s="1">
+        <v>61242.022922999997</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-29748.717798000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1094,62 +1094,62 @@
         <v>-32406.331692</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
         <v>-70926.891969000004</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2">
-        <v>149741.45392999999</v>
-      </c>
-      <c r="H20" s="2">
-        <v>150994.64281700001</v>
-      </c>
-      <c r="I20" s="2">
-        <v>-74654.726964999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1">
+        <v>149858.93192100001</v>
+      </c>
+      <c r="H20" s="1">
+        <v>151123.81355200001</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-74711.465960000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>-72124.902675000005</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="2">
-        <v>151631.367341</v>
-      </c>
-      <c r="H21" s="2">
-        <v>152884.55622699999</v>
-      </c>
-      <c r="I21" s="2">
-        <v>-75599.683669999999</v>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1">
+        <v>151740.83620300001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>153005.71783400001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-75652.418101000003</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1323,59 +1323,59 @@
         <v>-46380.257963999997</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="2">
-        <v>243770.05381000001</v>
-      </c>
-      <c r="H28" s="2">
-        <v>245221.14382500001</v>
-      </c>
-      <c r="I28" s="2">
-        <v>-121669.02690500001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1">
+        <v>243948.52570900001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>245413.69281499999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-121756.262854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>-118676.162627</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="2">
-        <v>246661.68105399999</v>
-      </c>
-      <c r="H29" s="2">
-        <v>248112.77106999999</v>
-      </c>
-      <c r="I29" s="2">
-        <v>-123114.84052699999</v>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1">
+        <v>246850.437068</v>
+      </c>
+      <c r="H29" s="1">
+        <v>248315.60417400001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-123207.218534</v>
       </c>
     </row>
   </sheetData>

--- a/RaxML_analysis/RAxML_run_summary.xlsx
+++ b/RaxML_analysis/RAxML_run_summary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\RaxML_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BABD9F-5D91-4D54-B3A7-9EA17F042207}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D438B5E3-0591-460C-9CAD-A1FD1C6B5BB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="64">
   <si>
     <t>RunName</t>
   </si>
@@ -196,13 +197,51 @@
   </si>
   <si>
     <t>RaxML_TOR_B62</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>LST8-1</t>
+  </si>
+  <si>
+    <t>RAPTORB</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>ENSEMBL</t>
+  </si>
+  <si>
+    <t>Phytozome</t>
+  </si>
+  <si>
+    <t>BLAST</t>
+  </si>
+  <si>
+    <t>Homolo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="#,##0.000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,15 +273,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -256,6 +298,4336 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LST8-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$B$2:$C$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ENSEMBL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ENSEMBL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>BLAST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BLAST</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Homolo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Homolo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Phytozome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Phytozome</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>27166.084647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27251.656081000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10670.111351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10861.476567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10967.754516000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11030.858383000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59912.367238999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59933.435596000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5605-49F3-873D-7BD289CA86AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1010448240"/>
+        <c:axId val="1225053392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1010448240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225053392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1225053392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AIC score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1010448240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAPTORB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$B$10:$C$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ENSEMBL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ENSEMBL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>BLAST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BLAST</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Homolo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Homolo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Phytozome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Phytozome</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$10:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>209942.24200200001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210121.32786799999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60950.063335999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62088.057613999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64698.132706999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64928.663383999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149858.93192100001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151740.83620300001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3466-43C3-A8D2-B0F1F3B33ED9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1010448240"/>
+        <c:axId val="1225053392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1010448240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225053392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1225053392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AIC score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1010448240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$B$18:$C$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ENSEMBL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ENSEMBL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>BLAST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BLAST</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Homolo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Homolo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Phytozome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Phytozome</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$18:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>428254.29828300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>429043.882293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79872.396766999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81527.181821000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92140.823103999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92868.515927999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243948.52570900001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>246850.437068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0243-412A-A601-A1682B7E53AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1010448240"/>
+        <c:axId val="1225053392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1010448240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225053392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1225053392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AIC score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1010448240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RaxML phylogenetic analysis results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$B$18:$C$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ENSEMBL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ENSEMBL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>BLAST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BLAST</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Homolo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Homolo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Phytozome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Phytozome</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$18:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>428254.29828300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>429043.882293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79872.396766999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81527.181821000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92140.823103999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92868.515927999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>243948.52570900001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>246850.437068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-04ED-4434-9060-E1000C9C3309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAPTORB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$B$10:$C$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ENSEMBL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ENSEMBL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>BLAST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BLAST</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Homolo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Homolo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Phytozome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Phytozome</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$10:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>209942.24200200001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210121.32786799999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60950.063335999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62088.057613999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64698.132706999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64928.663383999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149858.93192100001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151740.83620300001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-04ED-4434-9060-E1000C9C3309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LST8-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$B$2:$C$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LG</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>BLOSUM62</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ENSEMBL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ENSEMBL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>BLAST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BLAST</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Homolo</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Homolo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Phytozome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Phytozome</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>27166.084647</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27251.656081000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10670.111351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10861.476567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10967.754516000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11030.858383000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59912.367238999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59933.435596000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-04ED-4434-9060-E1000C9C3309}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="1010448240"/>
+        <c:axId val="1225053392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1010448240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225053392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1225053392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AIC score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1010448240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36397F92-9AA9-449C-ACCC-51A25FA13A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7860EFFF-F3E0-4BAE-A2CD-C8C95F37801B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{249E2D10-343C-48E6-A519-E498A0772803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4ADE3E-AC86-4E46-A3CF-EE23F4F382F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,23 +4929,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F246AD-F8A7-4AB0-8D93-D301BD698F09}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +4974,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -631,7 +5003,7 @@
         <v>-13397.042324</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -660,7 +5032,7 @@
         <v>-13439.828041000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -689,7 +5061,7 @@
         <v>-5119.0556759999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -718,7 +5090,7 @@
         <v>-5214.7382829999997</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -747,7 +5119,7 @@
         <v>-5427.8772580000004</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -776,7 +5148,7 @@
         <v>-5459.4291910000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -805,7 +5177,7 @@
         <v>-29738.183618999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -834,7 +5206,7 @@
         <v>-29748.717798000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -863,7 +5235,7 @@
         <v>-104723.12100100001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -889,7 +5261,7 @@
         <v>-104812.663934</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,7 +5290,7 @@
         <v>-94967.986749000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,7 +5319,7 @@
         <v>-30259.031668</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -976,7 +5348,7 @@
         <v>-30828.028806999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -996,7 +5368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +5388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +5408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1065,7 +5437,7 @@
         <v>-32291.066353999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1094,7 +5466,7 @@
         <v>-32406.331692</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1123,7 +5495,7 @@
         <v>-74711.465960000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1152,7 +5524,7 @@
         <v>-75652.418101000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -1181,7 +5553,7 @@
         <v>-213915.14914200001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1207,7 +5579,7 @@
         <v>-214309.941146</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1236,7 +5608,7 @@
         <v>-39720.198383000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -1265,7 +5637,7 @@
         <v>-40547.590909999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1294,7 +5666,7 @@
         <v>-46016.411551999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1323,7 +5695,7 @@
         <v>-46380.257963999997</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -1349,7 +5721,7 @@
         <v>-121756.262854</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -1385,4 +5757,528 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C830B-E35B-407B-A5D7-449101F5BD84}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>27166.084647</v>
+      </c>
+      <c r="E2" s="3">
+        <v>27971.412735999998</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-13397.042324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3">
+        <v>27251.656081000001</v>
+      </c>
+      <c r="E3" s="3">
+        <v>28056.98417</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-13439.828041000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10670.111351</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11531.184984</v>
+      </c>
+      <c r="F4" s="3">
+        <v>-5119.0556759999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10861.476567</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11722.5502</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-5214.7382829999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10967.754516000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11191.833748999999</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-5427.8772580000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>11030.858383000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11254.937615999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-5459.4291910000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
+        <v>59912.367238999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>61220.954566</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-29738.183618999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>59933.435596000003</v>
+      </c>
+      <c r="E9" s="3">
+        <v>61242.022922999997</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-29748.717798000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
+        <v>209942.24200200001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>211569.32715500001</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-104723.12100100001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>210121.32786799999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>211748.41302099999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-104812.663934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
+        <v>60950.063335999999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>62107.433187000002</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-30259.031668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>62088.057613999998</v>
+      </c>
+      <c r="E13" s="3">
+        <v>63245.427464</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-30828.028806999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3">
+        <v>64698.132706999997</v>
+      </c>
+      <c r="E14" s="3">
+        <v>65027.930120999998</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-32291.066353999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>64928.663383999999</v>
+      </c>
+      <c r="E15" s="3">
+        <v>65258.460797</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-32406.331692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>149858.93192100001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>151123.81355200001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-74711.465960000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>151740.83620300001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>153005.71783400001</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-75652.418101000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>428254.29828300001</v>
+      </c>
+      <c r="E18" s="3">
+        <v>429832.08793500002</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-213915.14914200001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3">
+        <v>429043.882293</v>
+      </c>
+      <c r="E19" s="3">
+        <v>430621.67194500001</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-214309.941146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
+        <v>79872.396766999998</v>
+      </c>
+      <c r="E20" s="3">
+        <v>81136.187422999996</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-39720.198383000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3">
+        <v>81527.181821000006</v>
+      </c>
+      <c r="E21" s="3">
+        <v>82790.972475999995</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-40547.590909999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
+        <v>92140.823103999996</v>
+      </c>
+      <c r="E22" s="3">
+        <v>92465.739902000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-46016.411551999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3">
+        <v>92868.515927999993</v>
+      </c>
+      <c r="E23" s="3">
+        <v>93193.432725999999</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-46380.257963999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
+        <v>243948.52570900001</v>
+      </c>
+      <c r="E24" s="3">
+        <v>245413.69281499999</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-121756.262854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3">
+        <v>246850.437068</v>
+      </c>
+      <c r="E25" s="3">
+        <v>248315.60417400001</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-123207.218534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/RaxML_analysis/RAxML_run_summary.xlsx
+++ b/RaxML_analysis/RAxML_run_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pollo\Documents\Box Sync\EEOB563\EEOB563_S19FinalProject\RaxML_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D438B5E3-0591-460C-9CAD-A1FD1C6B5BB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAD3C82-984F-4C4C-AE81-1A555C15B661}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3A8E787D-85F8-4AF4-B4A9-9C09B004D04D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="65">
   <si>
     <t>RunName</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Homolo</t>
+  </si>
+  <si>
+    <t>logAIC</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -281,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4933,19 +4936,19 @@
       <selection activeCell="B18" sqref="B18:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -5003,7 +5006,7 @@
         <v>-13397.042324</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>-13439.828041000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>-5119.0556759999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -5090,7 +5093,7 @@
         <v>-5214.7382829999997</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>-5427.8772580000004</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -5148,7 +5151,7 @@
         <v>-5459.4291910000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>-29738.183618999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -5206,7 +5209,7 @@
         <v>-29748.717798000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>-104723.12100100001</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -5261,7 +5264,7 @@
         <v>-104812.663934</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -5290,7 +5293,7 @@
         <v>-94967.986749000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>-30259.031668</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>-30828.028806999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5368,7 +5371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -5408,7 +5411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>-32291.066353999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>-32406.331692</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -5495,7 +5498,7 @@
         <v>-74711.465960000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>-75652.418101000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -5553,7 +5556,7 @@
         <v>-213915.14914200001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>-214309.941146</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>-39720.198383000003</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>-40547.590909999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>-46016.411551999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -5695,7 +5698,7 @@
         <v>-46380.257963999997</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>-121756.262854</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -5761,22 +5764,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C830B-E35B-407B-A5D7-449101F5BD84}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -5795,8 +5798,11 @@
       <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
@@ -5815,8 +5821,12 @@
       <c r="F2" s="3">
         <v>-13397.042324</v>
       </c>
+      <c r="G2">
+        <f>LOG(D2,10)</f>
+        <v>4.4340270495796776</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -5835,8 +5845,12 @@
       <c r="F3" s="3">
         <v>-13439.828041000001</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="0">LOG(D3,10)</f>
+        <v>4.4353928994561747</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
@@ -5855,8 +5869,12 @@
       <c r="F4" s="3">
         <v>-5119.0556759999999</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4.0281689516524466</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -5875,8 +5893,12 @@
       <c r="F5" s="3">
         <v>-5214.7382829999997</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4.0358888695723305</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -5895,8 +5917,12 @@
       <c r="F6" s="3">
         <v>-5427.8772580000004</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4.0401177213639041</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>57</v>
       </c>
@@ -5915,8 +5941,12 @@
       <c r="F7" s="3">
         <v>-5459.4291910000002</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>4.04260930903994</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
@@ -5935,8 +5965,12 @@
       <c r="F8" s="3">
         <v>-29738.183618999999</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4.7775164796391749</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>57</v>
       </c>
@@ -5955,8 +5989,12 @@
       <c r="F9" s="3">
         <v>-29748.717798000001</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>4.7776691737021402</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -5975,8 +6013,12 @@
       <c r="F10" s="3">
         <v>-104723.12100100001</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>5.3220998307816583</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -5995,8 +6037,12 @@
       <c r="F11" s="3">
         <v>-104812.663934</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>5.3224701366766771</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
@@ -6015,8 +6061,12 @@
       <c r="F12" s="3">
         <v>-30259.031668</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>4.784974161249905</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -6035,8 +6085,12 @@
       <c r="F13" s="3">
         <v>-30828.028806999999</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>4.7930080734276128</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -6055,8 +6109,12 @@
       <c r="F14" s="3">
         <v>-32291.066353999999</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>4.8108917464067424</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -6075,8 +6133,12 @@
       <c r="F15" s="3">
         <v>-32406.331692</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>4.812436462615123</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
@@ -6095,8 +6157,12 @@
       <c r="F16" s="3">
         <v>-74711.465960000001</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>5.1756826329566703</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
@@ -6115,8 +6181,12 @@
       <c r="F17" s="3">
         <v>-75652.418101000003</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>5.1811024730149073</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
@@ -6135,8 +6205,12 @@
       <c r="F18" s="3">
         <v>-213915.14914200001</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>5.6317017305662587</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -6155,8 +6229,12 @@
       <c r="F19" s="3">
         <v>-214309.941146</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>5.6325017137769358</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -6175,8 +6253,12 @@
       <c r="F20" s="3">
         <v>-39720.198383000003</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>4.902396716698215</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -6195,8 +6277,12 @@
       <c r="F21" s="3">
         <v>-40547.590909999999</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>4.9113024301721557</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
@@ -6215,8 +6301,12 @@
       <c r="F22" s="3">
         <v>-46016.411551999998</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>4.9644520875338571</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -6235,8 +6325,12 @@
       <c r="F23" s="3">
         <v>-46380.257963999997</v>
       </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>4.9678685054228016</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -6255,8 +6349,12 @@
       <c r="F24" s="3">
         <v>-121756.262854</v>
       </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>5.3872981978187262</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
@@ -6274,6 +6372,10 @@
       </c>
       <c r="F25" s="3">
         <v>-123207.218534</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>5.3924339005085677</v>
       </c>
     </row>
   </sheetData>
